--- a/data_preprocessing/data/기차역좌표.xlsx
+++ b/data_preprocessing/data/기차역좌표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qjawl\Desktop\빅데이터\빅데이터프로젝트\UAM\20210821\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madda\Desktop\data_preprocessing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E48D6D2-BA5D-4B08-B567-A24CB14FA993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3965E9E-2B98-4DCD-AD28-F45BEA79FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>경도</t>
+    <t>위도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>위도</t>
+    <t>경도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -437,12 +439,12 @@
   <dimension ref="A1:C591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:N12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.95"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.95">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -461,7 +463,7 @@
         <v>126.830814715325</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -472,7 +474,7 @@
         <v>128.737237077949</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -483,7 +485,7 @@
         <v>127.20793619956601</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -494,7 +496,7 @@
         <v>127.997361263351</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -505,7 +507,7 @@
         <v>126.765044092685</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -516,7 +518,7 @@
         <v>126.943387264162</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -527,7 +529,7 @@
         <v>126.943387264162</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -538,7 +540,7 @@
         <v>127.29022951130401</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -549,7 +551,7 @@
         <v>126.894514076077</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -560,7 +562,7 @@
         <v>126.773936400512</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -571,7 +573,7 @@
         <v>128.33093945635801</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -582,7 +584,7 @@
         <v>127.105772956042</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -593,7 +595,7 @@
         <v>126.86992042865801</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -604,7 +606,7 @@
         <v>128.730431736665</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -615,7 +617,7 @@
         <v>128.99714196806201</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -626,7 +628,7 @@
         <v>127.399469211218</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -637,7 +639,7 @@
         <v>128.35190233554101</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -648,7 +650,7 @@
         <v>126.758835800618</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -659,7 +661,7 @@
         <v>126.948484962089</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -670,7 +672,7 @@
         <v>127.557660392646</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -681,7 +683,7 @@
         <v>126.79066201909001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -692,7 +694,7 @@
         <v>126.621679104874</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -703,7 +705,7 @@
         <v>129.37506381716199</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -714,7 +716,7 @@
         <v>127.428765024497</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -725,7 +727,7 @@
         <v>129.07947654895901</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -736,7 +738,7 @@
         <v>127.453153044419</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -747,7 +749,7 @@
         <v>126.881491595821</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -758,7 +760,7 @@
         <v>127.451941588785</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -769,7 +771,7 @@
         <v>127.059005481331</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -780,7 +782,7 @@
         <v>127.059265605498</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -791,7 +793,7 @@
         <v>127.143610890921</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -802,7 +804,7 @@
         <v>126.477437882407</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -813,7 +815,7 @@
         <v>126.997456834042</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -824,7 +826,7 @@
         <v>126.90912111847599</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -835,7 +837,7 @@
         <v>127.070663135624</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -846,7 +848,7 @@
         <v>126.88487719743399</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -857,7 +859,7 @@
         <v>127.587639033801</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -868,7 +870,7 @@
         <v>127.06176348127001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -879,7 +881,7 @@
         <v>126.909458676399</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -890,7 +892,7 @@
         <v>128.678615525178</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -901,7 +903,7 @@
         <v>129.06060500979501</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -912,7 +914,7 @@
         <v>126.822032221336</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -923,7 +925,7 @@
         <v>128.85288925742501</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -934,7 +936,7 @@
         <v>126.80172737542701</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -945,7 +947,7 @@
         <v>127.303695147064</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -956,7 +958,7 @@
         <v>127.346172963513</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -967,7 +969,7 @@
         <v>127.65616524718</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -978,7 +980,7 @@
         <v>128.077923043044</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -989,7 +991,7 @@
         <v>127.096739049946</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1000,7 +1002,7 @@
         <v>127.550982055441</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>127.253267286176</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>127.008051189437</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>128.72750824027401</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1044,7 +1046,7 @@
         <v>129.21805366748501</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>128.686924507334</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1066,7 +1068,7 @@
         <v>127.265599085231</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1077,7 +1079,7 @@
         <v>126.608121885305</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1088,7 +1090,7 @@
         <v>128.241555948242</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>127.45358936019601</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>126.75151339888799</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>127.228001865221</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1132,7 +1134,7 @@
         <v>128.32888687569201</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>129.074239490672</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1154,7 +1156,7 @@
         <v>129.06899637198401</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1165,7 +1167,7 @@
         <v>129.09706047139699</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>126.673541984078</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>127.11470803242101</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>126.897649569957</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>129.37199505331799</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>128.89966324557599</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1231,7 +1233,7 @@
         <v>126.845354850334</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>127.634125952836</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1253,7 +1255,7 @@
         <v>126.859102583368</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1264,7 +1266,7 @@
         <v>127.044220735748</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>126.882559483336</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1286,7 +1288,7 @@
         <v>127.35600281424701</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>129.03958218686699</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1308,7 +1310,7 @@
         <v>126.91514979126499</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>128.69269460855699</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>127.126705584536</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>127.511017051625</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>126.693451172704</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>126.963823471604</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>127.723915185217</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>126.870479482398</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1396,7 +1398,7 @@
         <v>127.536799193457</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>127.324747164824</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>126.948359181242</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>126.74251655249699</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1440,7 +1442,7 @@
         <v>127.042273911226</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>127.05091999212701</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1462,7 +1464,7 @@
         <v>129.21543389661801</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1473,7 +1475,7 @@
         <v>128.668800322311</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1484,7 +1486,7 @@
         <v>126.71700165988599</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>128.83153739662399</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1506,7 +1508,7 @@
         <v>126.695263757502</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1517,7 +1519,7 @@
         <v>128.71633490811601</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1528,7 +1530,7 @@
         <v>126.97133243783701</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>127.36139009565601</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1550,7 +1552,7 @@
         <v>129.283429354481</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>128.65911692904001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>126.90025057282899</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1583,7 +1585,7 @@
         <v>128.62877553268399</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1594,7 +1596,7 @@
         <v>127.054876860804</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>127.056238895955</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1616,7 +1618,7 @@
         <v>129.091141148215</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1627,7 +1629,7 @@
         <v>127.97083933987</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>127.0850713506</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>126.702935214739</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1660,7 +1662,7 @@
         <v>127.476857518982</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -1671,7 +1673,7 @@
         <v>126.957043421827</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1682,7 +1684,7 @@
         <v>127.161152955692</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -1693,7 +1695,7 @@
         <v>128.32687113107701</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -1704,7 +1706,7 @@
         <v>126.709629531242</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -1715,7 +1717,7 @@
         <v>127.045764016316</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -1726,7 +1728,7 @@
         <v>127.222654178048</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>127.614318350652</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -1748,7 +1750,7 @@
         <v>126.642404388038</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>126.668375888234</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -1770,7 +1772,7 @@
         <v>126.88951416871799</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>126.747305098166</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -1792,7 +1794,7 @@
         <v>128.68825202669601</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>127.208819520604</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -1814,7 +1816,7 @@
         <v>127.62741463371</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>127.061969695022</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -1836,7 +1838,7 @@
         <v>129.30526942051</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -1847,7 +1849,7 @@
         <v>129.043673257091</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -1858,7 +1860,7 @@
         <v>126.88984116053599</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>127.05532337372</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -1880,7 +1882,7 @@
         <v>127.07316864715</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -1891,7 +1893,7 @@
         <v>126.926303024833</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -1902,7 +1904,7 @@
         <v>127.37923592537599</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>126.82455235298799</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -1924,7 +1926,7 @@
         <v>126.917178861076</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -1935,7 +1937,7 @@
         <v>127.432103833008</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -1946,7 +1948,7 @@
         <v>127.42285570821799</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -1957,7 +1959,7 @@
         <v>126.8186055475</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>126.586412361547</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>126.641128118094</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>128.34379723817301</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>126.74577178691401</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>127.880244362702</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -2023,7 +2025,7 @@
         <v>126.948347418727</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -2034,7 +2036,7 @@
         <v>126.810602730178</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -2045,7 +2047,7 @@
         <v>126.810602730178</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -2056,7 +2058,7 @@
         <v>127.005564107175</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>127.108087703766</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -2078,7 +2080,7 @@
         <v>128.59612920848301</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -2089,7 +2091,7 @@
         <v>128.77063291943099</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -2100,7 +2102,7 @@
         <v>126.38999278452199</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -2111,7 +2113,7 @@
         <v>127.93260509256901</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -2122,7 +2124,7 @@
         <v>126.503230405167</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>126.51693864061799</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>129.107990457179</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2155,7 +2157,7 @@
         <v>129.11184753387701</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2166,7 +2168,7 @@
         <v>128.98978771884299</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2177,7 +2179,7 @@
         <v>126.787595361922</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2188,7 +2190,7 @@
         <v>128.98570823813401</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2199,7 +2201,7 @@
         <v>127.057336156052</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2210,7 +2212,7 @@
         <v>127.718828351204</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2221,7 +2223,7 @@
         <v>127.015737211583</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>127.040759754726</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2243,7 +2245,7 @@
         <v>127.391259265336</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>127.07652785267599</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>126.935265701361</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2276,7 +2278,7 @@
         <v>127.129033977612</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>129.12387788292099</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2298,7 +2300,7 @@
         <v>129.332461243236</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2309,7 +2311,7 @@
         <v>126.778195968273</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>128.577217454129</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2331,7 +2333,7 @@
         <v>127.31185017814801</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>129.072199935198</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2353,7 +2355,7 @@
         <v>127.893095209479</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2364,7 +2366,7 @@
         <v>129.09737914051399</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2375,7 +2377,7 @@
         <v>127.092756577852</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2386,7 +2388,7 @@
         <v>127.092756577852</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>127.047359692995</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -2408,7 +2410,7 @@
         <v>129.29716858304801</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -2419,7 +2421,7 @@
         <v>126.943860903923</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -2430,7 +2432,7 @@
         <v>129.06050629267801</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -2441,7 +2443,7 @@
         <v>129.27564688831299</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -2452,7 +2454,7 @@
         <v>126.782649695027</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>126.72335064425</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -2474,7 +2476,7 @@
         <v>126.79671332983</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>128.91397318354501</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>127.097159244594</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -2507,7 +2509,7 @@
         <v>127.883631227569</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>128.909763980478</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>127.313805032041</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -2540,7 +2542,7 @@
         <v>128.72515759878601</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -2551,7 +2553,7 @@
         <v>127.366617958676</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -2562,7 +2564,7 @@
         <v>126.740251327956</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>127.490363784678</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>129.04506021634501</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -2595,7 +2597,7 @@
         <v>129.112789206484</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>129.04762154755099</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -2617,7 +2619,7 @@
         <v>127.033243427141</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -2628,7 +2630,7 @@
         <v>127.057237110508</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -2639,7 +2641,7 @@
         <v>127.082509308203</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -2650,7 +2652,7 @@
         <v>127.10844637426</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>127.65888706363199</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -2672,7 +2674,7 @@
         <v>127.126771228018</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>128.72258472056501</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>127.135835679685</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -2705,7 +2707,7 @@
         <v>128.83104418338499</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>126.80838776730999</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -2727,7 +2729,7 @@
         <v>126.707165701503</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -2738,7 +2740,7 @@
         <v>128.17401467724301</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -2749,7 +2751,7 @@
         <v>127.34529583090701</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -2760,7 +2762,7 @@
         <v>129.05749685335999</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>128.88334414764199</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -2782,7 +2784,7 @@
         <v>129.136096935843</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -2793,7 +2795,7 @@
         <v>127.127483127948</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -2804,7 +2806,7 @@
         <v>128.73976395115</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -2815,7 +2817,7 @@
         <v>128.258584716754</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -2826,7 +2828,7 @@
         <v>128.71365655876701</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -2837,7 +2839,7 @@
         <v>126.903795028845</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -2848,7 +2850,7 @@
         <v>127.044423079471</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>127.05290472337801</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -2870,7 +2872,7 @@
         <v>126.794456622803</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>127.166284234382</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -2892,7 +2894,7 @@
         <v>129.03351122140501</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>126.788171623016</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>127.589196393763</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -2925,7 +2927,7 @@
         <v>127.12135037020001</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>128.640010629545</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -2947,7 +2949,7 @@
         <v>126.94238697937099</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -2958,7 +2960,7 @@
         <v>127.13897509968599</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -2969,7 +2971,7 @@
         <v>127.42836621833899</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -2980,7 +2982,7 @@
         <v>126.88478208749601</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>126.625324659412</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -3002,7 +3004,7 @@
         <v>126.624560557145</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -3013,7 +3015,7 @@
         <v>129.177032353897</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -3024,7 +3026,7 @@
         <v>127.720402320574</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>127.405242869086</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -3046,7 +3048,7 @@
         <v>126.848521612695</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -3057,7 +3059,7 @@
         <v>127.20825587991401</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>127.078291450541</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -3079,7 +3081,7 @@
         <v>129.083612595771</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>126.662041459812</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>128.012598198826</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -3112,7 +3114,7 @@
         <v>127.37306040917601</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>127.069577322142</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -3134,7 +3136,7 @@
         <v>126.949921514343</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -3145,7 +3147,7 @@
         <v>128.48600514476101</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -3156,7 +3158,7 @@
         <v>126.89565920167099</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -3167,7 +3169,7 @@
         <v>127.10185919101799</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -3178,7 +3180,7 @@
         <v>127.000096053009</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -3189,7 +3191,7 @@
         <v>127.00162362811901</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -3200,7 +3202,7 @@
         <v>127.000096053009</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>127.03125645458699</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -3222,7 +3224,7 @@
         <v>127.503076078383</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -3233,7 +3235,7 @@
         <v>126.638504189996</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -3244,7 +3246,7 @@
         <v>129.083788168936</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -3255,7 +3257,7 @@
         <v>127.111247645105</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>126.752771844443</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -3277,7 +3279,7 @@
         <v>126.654627246887</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -3288,7 +3290,7 @@
         <v>129.202435814106</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -3299,7 +3301,7 @@
         <v>127.054299835138</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -3310,7 +3312,7 @@
         <v>128.97218416980999</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -3321,7 +3323,7 @@
         <v>128.270075624334</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -3332,7 +3334,7 @@
         <v>127.114317155365</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>126.92549018064</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -3354,7 +3356,7 @@
         <v>127.01397825425001</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -3365,7 +3367,7 @@
         <v>127.04306251820201</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -3376,7 +3378,7 @@
         <v>127.570727128078</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>127.490374564086</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>129.12459258019899</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -3409,7 +3411,7 @@
         <v>126.73351945414601</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -3420,7 +3422,7 @@
         <v>126.79601855260201</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>127.061213156402</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>127.756428271489</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -3453,7 +3455,7 @@
         <v>127.15565640587199</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>127.048942471228</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -3475,7 +3477,7 @@
         <v>127.001363325574</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -3486,7 +3488,7 @@
         <v>129.32084027320499</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -3497,7 +3499,7 @@
         <v>126.883466224778</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -3508,7 +3510,7 @@
         <v>127.04364104222201</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -3519,7 +3521,7 @@
         <v>128.714183867657</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -3530,7 +3532,7 @@
         <v>126.97226105025899</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>128.69239551911599</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -3552,7 +3554,7 @@
         <v>127.12673215539699</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>127.05300635507299</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -3574,7 +3576,7 @@
         <v>128.74398665186999</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -3585,7 +3587,7 @@
         <v>127.290324430946</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -3596,7 +3598,7 @@
         <v>126.708112263674</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -3607,7 +3609,7 @@
         <v>127.123430800216</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -3618,7 +3620,7 @@
         <v>127.657443771869</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -3629,7 +3631,7 @@
         <v>126.90252920991099</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -3640,7 +3642,7 @@
         <v>129.06154379735699</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>128.620593126335</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -3662,7 +3664,7 @@
         <v>126.847093128726</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -3673,7 +3675,7 @@
         <v>127.403284156852</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -3684,7 +3686,7 @@
         <v>127.330939953033</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -3695,7 +3697,7 @@
         <v>127.052133990784</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -3706,7 +3708,7 @@
         <v>126.99004863094299</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -3717,7 +3719,7 @@
         <v>126.971068297901</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -3728,7 +3730,7 @@
         <v>126.97211589416101</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -3739,7 +3741,7 @@
         <v>127.044706934942</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -3750,7 +3752,7 @@
         <v>127.839526103279</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>126.751668597143</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -3772,7 +3774,7 @@
         <v>127.108877632339</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>128.760801827042</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -3794,7 +3796,7 @@
         <v>126.86541735605201</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -3805,7 +3807,7 @@
         <v>127.085436765164</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -3816,7 +3818,7 @@
         <v>129.101043438521</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -3827,7 +3829,7 @@
         <v>128.16344005484001</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -3838,7 +3840,7 @@
         <v>127.45448196290801</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -3849,7 +3851,7 @@
         <v>126.93480831315399</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -3860,7 +3862,7 @@
         <v>129.20117833358699</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -3871,7 +3873,7 @@
         <v>128.84034427005801</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -3882,7 +3884,7 @@
         <v>127.066290890449</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>126.850453264557</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>127.781803700279</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -3915,7 +3917,7 @@
         <v>128.72268872225399</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>126.89574252862199</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -3937,7 +3939,7 @@
         <v>129.17741041143401</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -3948,7 +3950,7 @@
         <v>129.166291991023</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -3959,7 +3961,7 @@
         <v>128.03827451322101</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>128.35665145657401</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>127.17693293409</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -3992,7 +3994,7 @@
         <v>129.23236781095099</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>128.81699623924101</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>128.98917115569199</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>126.933175158373</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>127.36298946871101</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -4047,7 +4049,7 @@
         <v>128.45447093524001</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -4058,7 +4060,7 @@
         <v>128.27453660680101</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -4069,7 +4071,7 @@
         <v>127.204770717033</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -4080,7 +4082,7 @@
         <v>129.322507507626</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>126.76947809459401</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -4102,7 +4104,7 @@
         <v>127.687994463663</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -4113,7 +4115,7 @@
         <v>126.92902298014999</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -4124,7 +4126,7 @@
         <v>126.747519006199</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -4135,7 +4137,7 @@
         <v>128.999156688151</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -4146,7 +4148,7 @@
         <v>126.435482972082</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -4157,7 +4159,7 @@
         <v>127.28931612632999</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -4168,7 +4170,7 @@
         <v>126.74699504143599</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -4179,7 +4181,7 @@
         <v>129.01041777210901</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -4190,7 +4192,7 @@
         <v>126.86413561374199</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -4201,7 +4203,7 @@
         <v>127.44236045122101</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -4212,7 +4214,7 @@
         <v>126.973595696064</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -4223,7 +4225,7 @@
         <v>126.947309880153</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -4234,7 +4236,7 @@
         <v>126.61708976095601</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>126.45234673858801</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -4256,7 +4258,7 @@
         <v>126.72256373578701</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -4267,7 +4269,7 @@
         <v>126.64965306821099</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>129.23311691956499</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -4289,7 +4291,7 @@
         <v>126.47772724946999</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -4300,7 +4302,7 @@
         <v>127.57992098157099</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -4311,7 +4313,7 @@
         <v>127.703856961052</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -4322,7 +4324,7 @@
         <v>127.034927944532</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -4333,7 +4335,7 @@
         <v>128.693474342234</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>126.948383028902</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -4355,7 +4357,7 @@
         <v>127.045879450143</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>127.12824815972</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>127.12824815972</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -4388,7 +4390,7 @@
         <v>126.989758711552</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -4399,7 +4401,7 @@
         <v>127.61900961977</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -4410,7 +4412,7 @@
         <v>127.9215355722</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -4421,7 +4423,7 @@
         <v>126.617550451971</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -4432,7 +4434,7 @@
         <v>127.447233889237</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -4443,7 +4445,7 @@
         <v>126.873307347639</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -4454,7 +4456,7 @@
         <v>127.058729394991</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -4465,7 +4467,7 @@
         <v>126.742708150113</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -4476,7 +4478,7 @@
         <v>126.792204696676</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -4487,7 +4489,7 @@
         <v>129.36694296458899</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -4498,7 +4500,7 @@
         <v>127.988275590848</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -4509,7 +4511,7 @@
         <v>129.17119476889201</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -4520,7 +4522,7 @@
         <v>126.686329807992</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>128.27344703506799</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -4542,7 +4544,7 @@
         <v>127.594500851742</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -4553,7 +4555,7 @@
         <v>126.964741503485</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -4564,7 +4566,7 @@
         <v>126.964741503485</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -4575,7 +4577,7 @@
         <v>126.964741503485</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -4586,7 +4588,7 @@
         <v>128.66851173293901</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -4597,7 +4599,7 @@
         <v>129.06975863305499</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -4608,7 +4610,7 @@
         <v>129.068370730401</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -4619,7 +4621,7 @@
         <v>129.06866516102201</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>129.068777316162</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -4641,7 +4643,7 @@
         <v>129.06874356719101</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -4652,7 +4654,7 @@
         <v>129.069649077035</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -4663,7 +4665,7 @@
         <v>129.07012464911099</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -4674,7 +4676,7 @@
         <v>129.071838031467</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -4685,7 +4687,7 @@
         <v>129.07262223261699</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -4696,7 +4698,7 @@
         <v>129.072328601648</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>127.309850206074</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -4718,7 +4720,7 @@
         <v>126.493665547285</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -4729,7 +4731,7 @@
         <v>129.35092922516799</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -4740,7 +4742,7 @@
         <v>126.824038632379</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>127.00345111054099</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -4762,7 +4764,7 @@
         <v>127.29569220036601</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -4773,7 +4775,7 @@
         <v>126.941300165207</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>127.976895800235</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -4795,7 +4797,7 @@
         <v>127.03839419439601</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -4806,7 +4808,7 @@
         <v>127.03839419439601</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -4817,7 +4819,7 @@
         <v>128.40001139933</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -4828,7 +4830,7 @@
         <v>127.063058800869</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>127.320575390206</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -4850,7 +4852,7 @@
         <v>129.208260668549</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>126.738463594077</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -4872,7 +4874,7 @@
         <v>126.738463594077</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -4883,7 +4885,7 @@
         <v>129.04983554500899</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -4894,7 +4896,7 @@
         <v>127.69493701149</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -4905,7 +4907,7 @@
         <v>126.661397182728</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -4916,7 +4918,7 @@
         <v>128.09421871631901</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -4927,7 +4929,7 @@
         <v>127.018329991576</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -4938,7 +4940,7 @@
         <v>127.565607966134</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>127.478507667911</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -4960,7 +4962,7 @@
         <v>126.844600701673</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -4971,7 +4973,7 @@
         <v>127.108947909824</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -4982,7 +4984,7 @@
         <v>126.961123436905</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -4993,7 +4995,7 @@
         <v>127.473532751774</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -5004,7 +5006,7 @@
         <v>127.066844907861</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -5015,7 +5017,7 @@
         <v>127.06306476328101</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -5026,7 +5028,7 @@
         <v>126.912598239614</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -5037,7 +5039,7 @@
         <v>127.327143465414</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -5048,7 +5050,7 @@
         <v>127.786362507384</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>128.482990413067</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -5070,7 +5072,7 @@
         <v>128.625043239946</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>128.93916191293599</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>127.07129692186599</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -5103,7 +5105,7 @@
         <v>127.201448008618</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -5114,7 +5116,7 @@
         <v>128.64835844505299</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>126.82888890103099</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -5136,7 +5138,7 @@
         <v>128.44353324362501</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>126.811871466794</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -5158,7 +5160,7 @@
         <v>128.39606992667299</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -5169,7 +5171,7 @@
         <v>127.088219266518</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -5180,7 +5182,7 @@
         <v>127.200811779644</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -5191,7 +5193,7 @@
         <v>126.67896398040899</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -5202,7 +5204,7 @@
         <v>127.074182037423</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -5213,7 +5215,7 @@
         <v>128.554994717103</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -5224,7 +5226,7 @@
         <v>128.448254141207</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -5235,7 +5237,7 @@
         <v>129.37731999018499</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -5246,7 +5248,7 @@
         <v>127.32884290158501</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -5257,7 +5259,7 @@
         <v>127.10792148904299</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -5268,7 +5270,7 @@
         <v>127.194607323013</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -5279,7 +5281,7 @@
         <v>127.044790945301</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -5290,7 +5292,7 @@
         <v>127.49176878886099</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -5301,7 +5303,7 @@
         <v>128.573085576323</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -5312,7 +5314,7 @@
         <v>128.685943944602</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -5323,7 +5325,7 @@
         <v>127.74885662663</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>127.628686291702</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -5345,7 +5347,7 @@
         <v>127.663825568069</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -5356,7 +5358,7 @@
         <v>126.92300270344001</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>128.97945530140001</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -5378,7 +5380,7 @@
         <v>126.78027627844401</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -5389,7 +5391,7 @@
         <v>127.04051293483499</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -5400,7 +5402,7 @@
         <v>126.761526821868</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -5411,7 +5413,7 @@
         <v>127.12872651223999</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -5422,7 +5424,7 @@
         <v>128.36392491901</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -5433,7 +5435,7 @@
         <v>127.75448327775599</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -5444,7 +5446,7 @@
         <v>129.01663996125899</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -5455,7 +5457,7 @@
         <v>127.10411524309301</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -5466,7 +5468,7 @@
         <v>128.72203412976501</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -5477,7 +5479,7 @@
         <v>127.17613933464899</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -5488,7 +5490,7 @@
         <v>128.25716586804501</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>129.05107211641001</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -5510,7 +5512,7 @@
         <v>129.23065361151001</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -5521,7 +5523,7 @@
         <v>128.67486884272401</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -5532,7 +5534,7 @@
         <v>129.10054941481599</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -5543,7 +5545,7 @@
         <v>126.787289454372</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -5554,7 +5556,7 @@
         <v>128.66059988228599</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -5565,7 +5567,7 @@
         <v>126.764353087885</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -5576,7 +5578,7 @@
         <v>127.07483381248301</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>127.07572895665599</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -5598,7 +5600,7 @@
         <v>128.51883239857</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -5609,7 +5611,7 @@
         <v>126.838496502051</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -5620,7 +5622,7 @@
         <v>127.582294375525</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>128.50033183215299</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -5642,7 +5644,7 @@
         <v>127.675951001854</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -5653,7 +5655,7 @@
         <v>127.630041823792</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -5664,7 +5666,7 @@
         <v>127.05566416117099</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -5675,7 +5677,7 @@
         <v>127.802255366924</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -5686,7 +5688,7 @@
         <v>127.31735924888299</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -5697,7 +5699,7 @@
         <v>126.680603833441</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -5708,7 +5710,7 @@
         <v>126.761046013417</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -5719,7 +5721,7 @@
         <v>126.571780362929</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -5730,7 +5732,7 @@
         <v>129.308759122243</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -5741,7 +5743,7 @@
         <v>128.386847242117</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -5752,7 +5754,7 @@
         <v>127.107392767338</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>127.10806292752</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -5774,7 +5776,7 @@
         <v>126.65686963339201</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -5785,7 +5787,7 @@
         <v>128.38954977342499</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -5796,7 +5798,7 @@
         <v>128.20429233010501</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -5807,7 +5809,7 @@
         <v>128.17602686301399</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -5818,7 +5820,7 @@
         <v>128.69998057313501</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -5829,7 +5831,7 @@
         <v>127.29633394629199</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -5840,7 +5842,7 @@
         <v>129.243941827291</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>127.265277781256</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>127.203657798115</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -5873,7 +5875,7 @@
         <v>127.16347062867101</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -5884,7 +5886,7 @@
         <v>128.20419798078001</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -5895,7 +5897,7 @@
         <v>129.03283025243999</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -5906,7 +5908,7 @@
         <v>126.77346582683001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -5917,7 +5919,7 @@
         <v>126.990186147038</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>128.67207676500499</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -5939,7 +5941,7 @@
         <v>126.743009420685</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>126.842502480741</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>128.73367632094599</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -5972,7 +5974,7 @@
         <v>129.36949114193899</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -5983,7 +5985,7 @@
         <v>129.34567084543201</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -5994,7 +5996,7 @@
         <v>126.780182723859</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -6005,7 +6007,7 @@
         <v>126.71492289477899</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -6016,7 +6018,7 @@
         <v>126.941661201817</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -6027,7 +6029,7 @@
         <v>129.12043100198699</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -6038,7 +6040,7 @@
         <v>127.70669312058</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -6049,7 +6051,7 @@
         <v>127.07133825087099</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -6060,7 +6062,7 @@
         <v>127.909462779883</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -6071,7 +6073,7 @@
         <v>127.49592834038501</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -6082,7 +6084,7 @@
         <v>128.76731098146101</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -6093,7 +6095,7 @@
         <v>127.426649292956</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -6104,7 +6106,7 @@
         <v>126.87654645512301</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -6115,7 +6117,7 @@
         <v>127.612121360591</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -6126,7 +6128,7 @@
         <v>127.068347994154</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -6137,7 +6139,7 @@
         <v>126.805905689102</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -6148,7 +6150,7 @@
         <v>128.94944461125101</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>128.74638125831001</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -6170,7 +6172,7 @@
         <v>127.04790218502799</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -6181,7 +6183,7 @@
         <v>127.05114707633</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -6192,7 +6194,7 @@
         <v>129.21978986559401</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -6203,7 +6205,7 @@
         <v>128.46371477100101</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -6214,7 +6216,7 @@
         <v>128.129167416408</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -6225,7 +6227,7 @@
         <v>127.07898181664601</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -6236,7 +6238,7 @@
         <v>126.590762963207</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>127.392288220243</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -6258,7 +6260,7 @@
         <v>128.07112659177201</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -6269,7 +6271,7 @@
         <v>128.06248817348401</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -6280,7 +6282,7 @@
         <v>128.110079443546</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>128.10955748078601</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>128.11529286611301</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -6313,7 +6315,7 @@
         <v>127.047714954434</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -6324,7 +6326,7 @@
         <v>128.60649893846701</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -6335,7 +6337,7 @@
         <v>128.701329974647</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -6346,7 +6348,7 @@
         <v>127.04926702662399</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -6357,7 +6359,7 @@
         <v>127.285751294113</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -6368,7 +6370,7 @@
         <v>127.146822493854</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -6379,7 +6381,7 @@
         <v>127.104450472765</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>126.818382929172</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -6401,7 +6403,7 @@
         <v>129.036959550109</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -6412,7 +6414,7 @@
         <v>127.144404953155</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -6423,7 +6425,7 @@
         <v>126.786451209886</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>126.792604079404</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>126.67950083224299</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>127.11098972272499</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>127.24383143264799</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -6478,7 +6480,7 @@
         <v>127.244434272129</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -6489,7 +6491,7 @@
         <v>128.42951965527701</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>126.963866284332</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -6511,7 +6513,7 @@
         <v>127.08328865812599</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -6522,7 +6524,7 @@
         <v>127.07048528785199</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>129.341926589134</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -6544,7 +6546,7 @@
         <v>127.67576875514099</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>127.65913673147</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>127.058035421223</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -6577,7 +6579,7 @@
         <v>127.058035421223</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -6588,7 +6590,7 @@
         <v>127.058035421223</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>127.42177474251601</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -6610,7 +6612,7 @@
         <v>127.04721862747201</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>127.80105964039301</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -6632,7 +6634,7 @@
         <v>129.36129164466001</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -6643,7 +6645,7 @@
         <v>129.332508363003</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -6654,7 +6656,7 @@
         <v>126.680548894387</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -6665,7 +6667,7 @@
         <v>129.00764546502799</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -6676,7 +6678,7 @@
         <v>128.694884408767</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -6687,7 +6689,7 @@
         <v>128.856635911821</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -6698,7 +6700,7 @@
         <v>126.989199634131</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -6709,7 +6711,7 @@
         <v>126.96127194852799</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -6720,7 +6722,7 @@
         <v>126.71594676678301</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -6731,7 +6733,7 @@
         <v>126.868385382583</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -6742,7 +6744,7 @@
         <v>126.83263004200499</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -6753,7 +6755,7 @@
         <v>127.910625379176</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -6764,7 +6766,7 @@
         <v>128.697033525498</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -6775,7 +6777,7 @@
         <v>128.42472763448001</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>126.956975649176</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -6797,7 +6799,7 @@
         <v>128.17557565291801</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -6808,7 +6810,7 @@
         <v>126.538970329305</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -6819,7 +6821,7 @@
         <v>126.835537116084</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>129.354298680786</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -6841,7 +6843,7 @@
         <v>126.708639070703</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -6852,7 +6854,7 @@
         <v>126.92696154839</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -6863,7 +6865,7 @@
         <v>129.06259681133699</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -6874,7 +6876,7 @@
         <v>126.79617165966999</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -6885,7 +6887,7 @@
         <v>128.81896185920499</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -6896,7 +6898,7 @@
         <v>126.920847840325</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -6907,7 +6909,7 @@
         <v>127.008249820572</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>126.85360411506799</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -6929,7 +6931,7 @@
         <v>127.065340303868</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.95">
       <c r="A591" s="1">
         <v>589</v>
       </c>
